--- a/Respostas.xlsx
+++ b/Respostas.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Técnica" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Consolidado" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Comercial" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Esg" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Consolidado" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Comercial" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1101,12 +1102,292 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11:06:18</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Teste2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CTX MLB</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Fornecedor</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Clima:
+Como o fornecedor está gerenciando as emissões de carbono (medindo, reduzindo e mitigando)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Social:
+Como o fornecedor está comprometido em promover direitos humanos, diversidade e desenvolvimento social em sua cadeia de valor?</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Governança:
+O fornecedor tem um código de conduta ou política sobre ética e transparência</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Clima:
+Como o fornecedor está gerenciando as emissões de carbono (medindo, reduzindo e mitigando) (PONDERADA)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Social:
+Como o fornecedor está comprometido em promover direitos humanos, diversidade e desenvolvimento social em sua cadeia de valor? (PONDERADA)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Governança:
+O fornecedor tem um código de conduta ou política sobre ética e transparência (PONDERADA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12:23:24</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Teste3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3PL</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>UNIDOCK’S ASSESSORIA E LOGÍSTICA DE MATERIAIS LTDA</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12:23:33</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Teste3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3PL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CEVA LOGISTICS LTDA</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12:23:40</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Teste3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3PL</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>KUEHNE + NAGEL SERVIÇOS LOGISTICOS LTDA</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1182,7 +1463,7 @@
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Iniciativas de redução de custos:
-O fornecedor demonstrou esforços para reduzir o preço ao propor iniciativas de redução de custos</t>
+O fornecedor demonstrou esforços para reduzir o preço ao propor iniciativas de redução de custos.1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -1245,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1257,22 +1538,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1284,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1305,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1317,22 +1598,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1344,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1365,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1377,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1404,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1592,7 +1873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
